--- a/Osteo_rawdata_edited.xlsx
+++ b/Osteo_rawdata_edited.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC51C19-B365-4D1F-9F82-886F551D3E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E1756D-709F-4E27-8AD7-D54BC08399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meds_Sex" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Authors</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Ansari2017</t>
   </si>
   <si>
-    <t>Oertel2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antonelli2014 </t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cuddihy 2004 </t>
-  </si>
-  <si>
-    <t>Oertel 2016</t>
   </si>
   <si>
     <t xml:space="preserve">Dagenais 2010 </t>
@@ -769,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,176 +1053,116 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>399</v>
+        <v>792</v>
       </c>
       <c r="C10">
-        <v>820</v>
+        <v>2413</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <f>75+178</f>
+        <v>253</v>
       </c>
       <c r="E10">
         <f>B10-D10</f>
-        <v>351</v>
+        <v>539</v>
       </c>
       <c r="F10">
-        <v>208</v>
+        <f>775+346</f>
+        <v>1121</v>
       </c>
       <c r="G10">
         <f>C10-F10</f>
-        <v>612</v>
-      </c>
-      <c r="H10">
+        <v>1292</v>
+      </c>
+      <c r="H10" s="6">
         <f>D10*G10/(E10*F10)</f>
-        <v>0.40236686390532544</v>
+        <v>0.54098927706675892</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>372</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1330</v>
-      </c>
-      <c r="D11" s="11">
-        <f>(57 + 94)</f>
-        <v>151</v>
-      </c>
-      <c r="E11" s="12">
-        <f>B11-D11</f>
-        <v>221</v>
-      </c>
-      <c r="F11" s="13">
-        <f>(209 + 427)</f>
-        <v>636</v>
-      </c>
-      <c r="G11" s="14">
-        <f>C11-F11</f>
-        <v>694</v>
-      </c>
-      <c r="H11" s="6">
-        <f>D11*G11/(E11*F11)</f>
-        <v>0.74556760294829105</v>
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <f>1/0.528</f>
+        <v>1.8939393939393938</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>792</v>
+        <f>1519+1715</f>
+        <v>3234</v>
       </c>
       <c r="C12">
-        <v>2413</v>
+        <f>5207+5408</f>
+        <v>10615</v>
       </c>
       <c r="D12">
-        <f>75+178</f>
-        <v>253</v>
+        <f>146+244</f>
+        <v>390</v>
       </c>
       <c r="E12">
         <f>B12-D12</f>
-        <v>539</v>
+        <v>2844</v>
       </c>
       <c r="F12">
-        <f>775+346</f>
-        <v>1121</v>
+        <f>1335+1754</f>
+        <v>3089</v>
       </c>
       <c r="G12">
         <f>C12-F12</f>
-        <v>1292</v>
-      </c>
-      <c r="H12" s="6">
-        <f>D12*G12/(E12*F12)</f>
-        <v>0.54098927706675892</v>
+        <v>7526</v>
+      </c>
+      <c r="H12">
+        <f>D12*F12/(E12*G12)</f>
+        <v>5.6284486634799645E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <f>1/0.528</f>
-        <v>1.8939393939393938</v>
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5">
+        <f>B13*0.86</f>
+        <v>6.02</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13" si="2">B13-D13</f>
+        <v>0.98000000000000043</v>
+      </c>
+      <c r="F13" s="5">
+        <f>C13*0.63</f>
+        <v>40.950000000000003</v>
+      </c>
+      <c r="G13" s="5">
+        <f>C13-F13</f>
+        <v>24.049999999999997</v>
+      </c>
+      <c r="H13" s="6">
+        <f>D13*G13/(E13*F13)</f>
+        <v>3.6077097505668911</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <f>1519+1715</f>
-        <v>3234</v>
-      </c>
-      <c r="C14">
-        <f>5207+5408</f>
-        <v>10615</v>
-      </c>
-      <c r="D14">
-        <f>146+244</f>
-        <v>390</v>
-      </c>
-      <c r="E14">
-        <f>B14-D14</f>
-        <v>2844</v>
-      </c>
-      <c r="F14">
-        <f>1335+1754</f>
-        <v>3089</v>
-      </c>
-      <c r="G14">
-        <f>C14-F14</f>
-        <v>7526</v>
-      </c>
-      <c r="H14">
-        <f>D14*F14/(E14*G14)</f>
-        <v>5.6284486634799645E-2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5">
-        <f>B15*0.86</f>
-        <v>6.02</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ref="E15" si="2">B15-D15</f>
-        <v>0.98000000000000043</v>
-      </c>
-      <c r="F15" s="5">
-        <f>C15*0.63</f>
-        <v>40.950000000000003</v>
-      </c>
-      <c r="G15" s="5">
-        <f>C15-F15</f>
-        <v>24.049999999999997</v>
-      </c>
-      <c r="H15" s="6">
-        <f>D15*G15/(E15*F15)</f>
-        <v>3.6077097505668911</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1238,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68F506-6C1B-46D9-9643-446CBCEFAADD}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1266,27 +1200,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>72</v>
@@ -1315,7 +1249,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3304</v>
@@ -1327,7 +1261,7 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">B3-D3</f>
+        <f t="shared" ref="E3:E6" si="0">B3-D3</f>
         <v>3268</v>
       </c>
       <c r="F3">
@@ -1344,7 +1278,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>27</v>
@@ -1371,12 +1305,12 @@
         <v>0.63157894736842102</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1403,101 +1337,72 @@
         <v>0.34210526315789475</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="43.5">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>399</v>
+        <f>1519+1715</f>
+        <v>3234</v>
       </c>
       <c r="C6">
-        <v>820</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
+        <f>5207+5408</f>
+        <v>10615</v>
+      </c>
+      <c r="D6" s="5">
+        <f>70+0.064*1715</f>
+        <v>179.76</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>3054.24</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <f>573+601</f>
+        <v>1174</v>
       </c>
       <c r="G6" s="5">
         <f>C6-F6</f>
-        <v>612</v>
+        <v>9441</v>
       </c>
       <c r="H6">
         <f>D6*G6/(E6*F6)</f>
-        <v>0.40236686390532544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.5">
+        <v>0.47330359100646013</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="174">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B7">
-        <f>1519+1715</f>
-        <v>3234</v>
+        <v>994</v>
       </c>
       <c r="C7">
-        <f>5207+5408</f>
-        <v>10615</v>
-      </c>
-      <c r="D7" s="5">
-        <f>70+0.064*1715</f>
-        <v>179.76</v>
+        <v>2310</v>
+      </c>
+      <c r="D7">
+        <v>109</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>3054.24</v>
+        <f t="shared" ref="E7" si="1">B7-D7</f>
+        <v>885</v>
       </c>
       <c r="F7">
-        <f>573+601</f>
-        <v>1174</v>
+        <v>578</v>
       </c>
       <c r="G7" s="5">
         <f>C7-F7</f>
-        <v>9441</v>
+        <v>1732</v>
       </c>
       <c r="H7">
         <f>D7*G7/(E7*F7)</f>
-        <v>0.47330359100646013</v>
+        <v>0.36906535296072568</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="174">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>994</v>
-      </c>
-      <c r="C8">
-        <v>2310</v>
-      </c>
-      <c r="D8">
-        <v>109</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8" si="1">B8-D8</f>
-        <v>885</v>
-      </c>
-      <c r="F8">
-        <v>578</v>
-      </c>
-      <c r="G8" s="5">
-        <f>C8-F8</f>
-        <v>1732</v>
-      </c>
-      <c r="H8">
-        <f>D8*G8/(E8*F8)</f>
-        <v>0.36906535296072568</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1415,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1529,33 +1434,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>65</v>
@@ -1582,12 +1487,12 @@
         <v>0.63713290194126426</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
         <f>(222/0.1+798/0.37)/2</f>
@@ -1618,7 +1523,7 @@
     </row>
     <row r="4" spans="1:9" ht="101.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5">
         <v>100</v>
@@ -1647,12 +1552,12 @@
         <v>0.41363775484270249</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5">
         <f>147*0.16</f>
@@ -1683,12 +1588,12 @@
         <v>0.375</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.5">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>66</v>
@@ -1715,7 +1620,7 @@
         <v>0.51724137931034486</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1727,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80248A54-6BD5-4851-86BC-15D2A830E19E}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1747,33 +1652,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>65</v>
@@ -1802,24 +1707,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
       <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
